--- a/data/trans_orig/P57B3_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>93564</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78277</v>
+        <v>77226</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112235</v>
+        <v>110874</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1354599145577909</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1133282363412166</v>
+        <v>0.1118074055876467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1624926842153061</v>
+        <v>0.1605217673438875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -762,19 +762,19 @@
         <v>111677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96118</v>
+        <v>97027</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126906</v>
+        <v>128138</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1526943530457627</v>
+        <v>0.1526943530457628</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1314200210337482</v>
+        <v>0.1326636490495699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1735161194468647</v>
+        <v>0.1752011279772736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>321</v>
@@ -783,19 +783,19 @@
         <v>205241</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181532</v>
+        <v>182238</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>228979</v>
+        <v>228401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1443235705371877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1276520545072168</v>
+        <v>0.1281481780775003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1610161292533912</v>
+        <v>0.1606095814976152</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>597146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>578475</v>
+        <v>579836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>612433</v>
+        <v>613484</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8645400854422092</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8375073157846937</v>
+        <v>0.8394782326561127</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8866717636587832</v>
+        <v>0.8881925944123532</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1028</v>
@@ -833,19 +833,19 @@
         <v>619702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>604473</v>
+        <v>603241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>635261</v>
+        <v>634352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8473056469542373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8264838805531354</v>
+        <v>0.8247988720227276</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8685799789662519</v>
+        <v>0.8673363509504309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1645</v>
@@ -854,19 +854,19 @@
         <v>1216847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1193109</v>
+        <v>1193687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1240556</v>
+        <v>1239850</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8556764294628123</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8389838707466087</v>
+        <v>0.8393904185023848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8723479454927832</v>
+        <v>0.8718518219224998</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>132796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111773</v>
+        <v>110616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158601</v>
+        <v>155315</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1267428152088341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1066776322157765</v>
+        <v>0.1055737898709924</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1513710787834674</v>
+        <v>0.1482347160135667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>258</v>
@@ -979,19 +979,19 @@
         <v>171225</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>152127</v>
+        <v>152518</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193056</v>
+        <v>194755</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1600696421189144</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1422160510782548</v>
+        <v>0.1425815274621627</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.180478123855744</v>
+        <v>0.1820668119887031</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>400</v>
@@ -1000,19 +1000,19 @@
         <v>304021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>275440</v>
+        <v>275046</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>336471</v>
+        <v>337051</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.143578788064514</v>
+        <v>0.1435787880645141</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.130080984556068</v>
+        <v>0.12989488790255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1589036806894054</v>
+        <v>0.1591775328168275</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>914967</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>889162</v>
+        <v>892448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>935990</v>
+        <v>937147</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8732571847911659</v>
+        <v>0.873257184791166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8486289212165322</v>
+        <v>0.8517652839864335</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8933223677842232</v>
+        <v>0.8944262101290076</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1256</v>
@@ -1050,19 +1050,19 @@
         <v>898465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>876634</v>
+        <v>874935</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>917563</v>
+        <v>917172</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8399303578810857</v>
+        <v>0.8399303578810856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.819521876144256</v>
+        <v>0.8179331880112968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8577839489217451</v>
+        <v>0.8574184725378373</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2077</v>
@@ -1071,19 +1071,19 @@
         <v>1813432</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1780982</v>
+        <v>1780402</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1842013</v>
+        <v>1842407</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8564212119354858</v>
+        <v>0.8564212119354861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.841096319310594</v>
+        <v>0.8408224671831729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8699190154439315</v>
+        <v>0.8701051120974502</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>71994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56661</v>
+        <v>56911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91773</v>
+        <v>92191</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08975129121297809</v>
+        <v>0.0897512912129781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07063669023254689</v>
+        <v>0.07094827533958253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1144098273862997</v>
+        <v>0.1149309162284869</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -1196,19 +1196,19 @@
         <v>75000</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62690</v>
+        <v>61289</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93449</v>
+        <v>92084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0924704567938795</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07729225889452458</v>
+        <v>0.07556484574768915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1152165419519785</v>
+        <v>0.1135334111217277</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>163</v>
@@ -1217,19 +1217,19 @@
         <v>146994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125090</v>
+        <v>126918</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172237</v>
+        <v>174386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09111839963691648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07754051592675981</v>
+        <v>0.07867349919637606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1067662082272152</v>
+        <v>0.1080979513328293</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>730151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>710372</v>
+        <v>709954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>745484</v>
+        <v>745234</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9102487087870218</v>
+        <v>0.9102487087870219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8855901726137003</v>
+        <v>0.8850690837715132</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9293633097674533</v>
+        <v>0.9290517246604176</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>951</v>
@@ -1267,19 +1267,19 @@
         <v>736075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>717626</v>
+        <v>718991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>748385</v>
+        <v>749786</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9075295432061204</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8847834580480214</v>
+        <v>0.8864665888782722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9227077411054753</v>
+        <v>0.9244351542523109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1558</v>
@@ -1288,19 +1288,19 @@
         <v>1466227</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1440984</v>
+        <v>1438835</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1488131</v>
+        <v>1486303</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9088816003630836</v>
+        <v>0.9088816003630834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8932337917727846</v>
+        <v>0.8919020486671706</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9224594840732401</v>
+        <v>0.9213265008036238</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>118686</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99933</v>
+        <v>98901</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140602</v>
+        <v>139238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1198770857264078</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1009359110909201</v>
+        <v>0.09989373237272459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1420132833544532</v>
+        <v>0.1406353656400569</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>222</v>
@@ -1413,19 +1413,19 @@
         <v>146904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129761</v>
+        <v>130099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166184</v>
+        <v>167405</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1315265565105276</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.116177573219083</v>
+        <v>0.1164809408441992</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1487879567558487</v>
+        <v>0.1498810750603877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>359</v>
@@ -1434,19 +1434,19 @@
         <v>265590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>240743</v>
+        <v>238862</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>296364</v>
+        <v>293871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1260525083925264</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1142600782307583</v>
+        <v>0.1133668933441774</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1406582143893268</v>
+        <v>0.1394749368496194</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>871376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>849460</v>
+        <v>850824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>890129</v>
+        <v>891161</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8801229142735922</v>
+        <v>0.8801229142735921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8579867166455468</v>
+        <v>0.8593646343599433</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8990640889090799</v>
+        <v>0.9001062676272753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1337</v>
@@ -1484,19 +1484,19 @@
         <v>970012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>950732</v>
+        <v>949511</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>987155</v>
+        <v>986817</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8684734434894725</v>
+        <v>0.8684734434894724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8512120432441515</v>
+        <v>0.8501189249396122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8838224267809172</v>
+        <v>0.8835190591558009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2206</v>
@@ -1505,19 +1505,19 @@
         <v>1841388</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1810614</v>
+        <v>1813107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1866235</v>
+        <v>1868116</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8739474916074738</v>
+        <v>0.8739474916074735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8593417856106733</v>
+        <v>0.8605250631503805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.885739921769242</v>
+        <v>0.8866331066558224</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>417039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>377142</v>
+        <v>380447</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>454720</v>
+        <v>454701</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1181186697784378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1068185570819563</v>
+        <v>0.1077546334598804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1287911694141884</v>
+        <v>0.1287857498224974</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>783</v>
@@ -1630,19 +1630,19 @@
         <v>504807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>472074</v>
+        <v>472229</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>543858</v>
+        <v>542716</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1353710931703766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.126593354503137</v>
+        <v>0.1266349277073406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1458432072063873</v>
+        <v>0.1455368514865209</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1243</v>
@@ -1651,19 +1651,19 @@
         <v>921846</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>866046</v>
+        <v>873457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>972321</v>
+        <v>978371</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1269806018524633</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1192943230172539</v>
+        <v>0.1203151688230486</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1339332982770171</v>
+        <v>0.1347667107535396</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3113641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3075960</v>
+        <v>3075979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3153538</v>
+        <v>3150233</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8818813302215621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8712088305858121</v>
+        <v>0.8712142501775024</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8931814429180436</v>
+        <v>0.8922453665401194</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4572</v>
@@ -1701,19 +1701,19 @@
         <v>3224253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3185202</v>
+        <v>3186344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3256986</v>
+        <v>3256831</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8646289068296235</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8541567927936129</v>
+        <v>0.8544631485134778</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.873406645496863</v>
+        <v>0.8733650722926589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7486</v>
@@ -1722,19 +1722,19 @@
         <v>6337894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6287419</v>
+        <v>6281369</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6393694</v>
+        <v>6386283</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8730193981475366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8660667017229831</v>
+        <v>0.8652332892464606</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8807056769827457</v>
+        <v>0.8796848311769514</v>
       </c>
     </row>
     <row r="18">
